--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -10475,8 +10475,12 @@
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
+      <c r="H264" t="b">
+        <v>1</v>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="b">

--- a/aws_allowlister/data/compliance_statuses.xlsx
+++ b/aws_allowlister/data/compliance_statuses.xlsx
@@ -702,20 +702,46 @@
           <t>AWS Certificate Manager Private Certificate Authority</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1064,7 +1090,9 @@
           <t>AWS App Mesh</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
@@ -1633,8 +1661,12 @@
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
@@ -1681,8 +1713,12 @@
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
@@ -1812,7 +1848,9 @@
           <t>AWS Managed Apache Cassandra Service</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
@@ -1825,7 +1863,9 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2601,8 +2641,12 @@
       <c r="I57" t="b">
         <v>1</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
       <c r="L57" t="b">
         <v>1</v>
       </c>
@@ -2733,8 +2777,12 @@
       <c r="I61" t="b">
         <v>1</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
@@ -2781,8 +2829,12 @@
       <c r="I62" t="b">
         <v>1</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
       <c r="L62" t="b">
         <v>1</v>
       </c>
@@ -2829,8 +2881,12 @@
       <c r="I63" t="b">
         <v>1</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
       <c r="L63" t="b">
         <v>1</v>
       </c>
@@ -2917,10 +2973,18 @@
       <c r="E65" t="b">
         <v>1</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="b">
@@ -3092,7 +3156,9 @@
           <t>AWS Glue DataBrew</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
       <c r="D70" t="b">
         <v>1</v>
       </c>
@@ -3368,7 +3434,9 @@
           <t>Amazon Detective</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="b">
         <v>1</v>
@@ -4043,8 +4111,12 @@
       <c r="I95" t="b">
         <v>1</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -5301,10 +5373,18 @@
       <c r="E128" t="b">
         <v>1</v>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="b">
@@ -6080,7 +6160,9 @@
           <t>Amazon Kendra</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
@@ -7165,8 +7247,12 @@
       <c r="I181" t="b">
         <v>1</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
       <c r="L181" t="b">
         <v>1</v>
       </c>
@@ -7356,7 +7442,9 @@
         <v>1</v>
       </c>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -8186,8 +8274,12 @@
         <v>1</v>
       </c>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="b">
+        <v>1</v>
+      </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -8723,8 +8815,12 @@
       <c r="I222" t="b">
         <v>1</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="b">
+        <v>1</v>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
       <c r="L222" t="b">
         <v>1</v>
       </c>
@@ -8854,7 +8950,9 @@
           <t>AWS Cloud Map</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="b">
+        <v>1</v>
+      </c>
       <c r="D225" t="b">
         <v>1</v>
       </c>
@@ -8931,8 +9029,12 @@
       <c r="I227" t="b">
         <v>1</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="b">
+        <v>1</v>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
       <c r="L227" t="b">
         <v>1</v>
       </c>
@@ -9099,8 +9201,12 @@
       <c r="I231" t="b">
         <v>1</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
       <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="b">
@@ -9795,8 +9901,12 @@
       <c r="I247" t="b">
         <v>1</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="b">
+        <v>1</v>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
       <c r="L247" t="b">
         <v>1</v>
       </c>
@@ -9820,7 +9930,9 @@
           <t>AWS Timestream</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr"/>
+      <c r="C248" t="b">
+        <v>1</v>
+      </c>
       <c r="D248" t="b">
         <v>1</v>
       </c>
